--- a/Team-Data/2011-12/2-21-2011-12.xlsx
+++ b/Team-Data/2011-12/2-21-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,13 +811,13 @@
         <v>2.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG2" t="n">
         <v>10</v>
@@ -789,22 +856,22 @@
         <v>25</v>
       </c>
       <c r="AS2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AU2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV2" t="n">
         <v>3</v>
       </c>
       <c r="AW2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AY2" t="n">
         <v>11</v>
@@ -816,7 +883,7 @@
         <v>23</v>
       </c>
       <c r="BB2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC2" t="n">
         <v>11</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-21-2011-12</t>
+          <t>2012-02-21</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>1.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE3" t="n">
         <v>18</v>
@@ -938,7 +1005,7 @@
         <v>18</v>
       </c>
       <c r="AH3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI3" t="n">
         <v>25</v>
@@ -971,16 +1038,16 @@
         <v>30</v>
       </c>
       <c r="AS3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT3" t="n">
         <v>30</v>
       </c>
       <c r="AU3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW3" t="n">
         <v>27</v>
@@ -989,16 +1056,16 @@
         <v>4</v>
       </c>
       <c r="AY3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA3" t="n">
         <v>21</v>
       </c>
       <c r="BB3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC3" t="n">
         <v>15</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-21-2011-12</t>
+          <t>2012-02-21</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-14.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
@@ -1120,7 +1187,7 @@
         <v>30</v>
       </c>
       <c r="AH4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI4" t="n">
         <v>28</v>
@@ -1147,13 +1214,13 @@
         <v>23</v>
       </c>
       <c r="AQ4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR4" t="n">
         <v>24</v>
       </c>
       <c r="AS4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT4" t="n">
         <v>26</v>
@@ -1174,7 +1241,7 @@
         <v>25</v>
       </c>
       <c r="AZ4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA4" t="n">
         <v>18</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-21-2011-12</t>
+          <t>2012-02-21</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1372,7 @@
         <v>29</v>
       </c>
       <c r="AI5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ5" t="n">
         <v>8</v>
@@ -1329,7 +1396,7 @@
         <v>18</v>
       </c>
       <c r="AQ5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR5" t="n">
         <v>2</v>
@@ -1365,7 +1432,7 @@
         <v>9</v>
       </c>
       <c r="BC5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-21-2011-12</t>
+          <t>2012-02-21</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" t="n">
         <v>17</v>
       </c>
       <c r="G6" t="n">
-        <v>0.433</v>
+        <v>0.414</v>
       </c>
       <c r="H6" t="n">
         <v>48.3</v>
@@ -1412,7 +1479,7 @@
         <v>34.7</v>
       </c>
       <c r="J6" t="n">
-        <v>81.09999999999999</v>
+        <v>81.2</v>
       </c>
       <c r="K6" t="n">
         <v>0.428</v>
@@ -1424,28 +1491,28 @@
         <v>19.1</v>
       </c>
       <c r="N6" t="n">
-        <v>0.364</v>
+        <v>0.359</v>
       </c>
       <c r="O6" t="n">
-        <v>17.7</v>
+        <v>17.5</v>
       </c>
       <c r="P6" t="n">
-        <v>25.4</v>
+        <v>25.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.699</v>
+        <v>0.697</v>
       </c>
       <c r="R6" t="n">
         <v>12.9</v>
       </c>
       <c r="S6" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="T6" t="n">
-        <v>43.5</v>
+        <v>43.3</v>
       </c>
       <c r="U6" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V6" t="n">
         <v>15.9</v>
@@ -1454,40 +1521,40 @@
         <v>7.6</v>
       </c>
       <c r="X6" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y6" t="n">
         <v>6.1</v>
       </c>
       <c r="Z6" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AB6" t="n">
-        <v>94.09999999999999</v>
+        <v>93.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>-3.5</v>
+        <v>-3.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF6" t="n">
         <v>18</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ6" t="n">
         <v>15</v>
@@ -1496,19 +1563,19 @@
         <v>25</v>
       </c>
       <c r="AL6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM6" t="n">
         <v>16</v>
       </c>
       <c r="AN6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ6" t="n">
         <v>28</v>
@@ -1517,7 +1584,7 @@
         <v>3</v>
       </c>
       <c r="AS6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT6" t="n">
         <v>8</v>
@@ -1526,7 +1593,7 @@
         <v>18</v>
       </c>
       <c r="AV6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW6" t="n">
         <v>20</v>
@@ -1544,7 +1611,7 @@
         <v>6</v>
       </c>
       <c r="BB6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC6" t="n">
         <v>23</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-21-2011-12</t>
+          <t>2012-02-21</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>3.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
         <v>5</v>
@@ -1675,7 +1742,7 @@
         <v>13</v>
       </c>
       <c r="AK7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL7" t="n">
         <v>7</v>
@@ -1690,22 +1757,22 @@
         <v>20</v>
       </c>
       <c r="AP7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR7" t="n">
         <v>22</v>
       </c>
       <c r="AS7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT7" t="n">
         <v>7</v>
       </c>
       <c r="AU7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV7" t="n">
         <v>9</v>
@@ -1726,10 +1793,10 @@
         <v>22</v>
       </c>
       <c r="BB7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-21-2011-12</t>
+          <t>2012-02-21</t>
         </is>
       </c>
     </row>
@@ -1836,16 +1903,16 @@
         <v>3</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF8" t="n">
         <v>13</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="n">
         <v>2</v>
@@ -1866,7 +1933,7 @@
         <v>7</v>
       </c>
       <c r="AN8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO8" t="n">
         <v>3</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-21-2011-12</t>
+          <t>2012-02-21</t>
         </is>
       </c>
     </row>
@@ -1940,85 +2007,85 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" t="n">
         <v>11</v>
       </c>
       <c r="F9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G9" t="n">
-        <v>0.324</v>
+        <v>0.333</v>
       </c>
       <c r="H9" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="I9" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="J9" t="n">
-        <v>79.09999999999999</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0.429</v>
+        <v>0.43</v>
       </c>
       <c r="L9" t="n">
         <v>4.4</v>
       </c>
       <c r="M9" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="N9" t="n">
-        <v>0.342</v>
+        <v>0.34</v>
       </c>
       <c r="O9" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="P9" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="Q9" t="n">
         <v>0.767</v>
       </c>
       <c r="R9" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="S9" t="n">
         <v>27.8</v>
       </c>
       <c r="T9" t="n">
-        <v>39.9</v>
+        <v>39.7</v>
       </c>
       <c r="U9" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="V9" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="W9" t="n">
         <v>7.1</v>
       </c>
       <c r="X9" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Y9" t="n">
         <v>5.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="AA9" t="n">
         <v>19.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>89.09999999999999</v>
+        <v>88.8</v>
       </c>
       <c r="AC9" t="n">
-        <v>-6.5</v>
+        <v>-6.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE9" t="n">
         <v>24</v>
@@ -2030,19 +2097,19 @@
         <v>24</v>
       </c>
       <c r="AH9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI9" t="n">
         <v>26</v>
       </c>
       <c r="AJ9" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AK9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM9" t="n">
         <v>27</v>
@@ -2072,10 +2139,10 @@
         <v>24</v>
       </c>
       <c r="AV9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX9" t="n">
         <v>30</v>
@@ -2084,13 +2151,13 @@
         <v>21</v>
       </c>
       <c r="AZ9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA9" t="n">
         <v>17</v>
       </c>
       <c r="BB9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC9" t="n">
         <v>27</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-21-2011-12</t>
+          <t>2012-02-21</t>
         </is>
       </c>
     </row>
@@ -2200,28 +2267,28 @@
         <v>-1.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF10" t="n">
         <v>18</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH10" t="n">
         <v>12</v>
       </c>
       <c r="AI10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ10" t="n">
         <v>9</v>
       </c>
       <c r="AK10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL10" t="n">
         <v>3</v>
@@ -2233,7 +2300,7 @@
         <v>2</v>
       </c>
       <c r="AO10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP10" t="n">
         <v>24</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-21-2011-12</t>
+          <t>2012-02-21</t>
         </is>
       </c>
     </row>
@@ -2382,10 +2449,10 @@
         <v>1.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF11" t="n">
         <v>12</v>
@@ -2403,13 +2470,13 @@
         <v>3</v>
       </c>
       <c r="AK11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL11" t="n">
         <v>7</v>
       </c>
       <c r="AM11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN11" t="n">
         <v>12</v>
@@ -2427,7 +2494,7 @@
         <v>12</v>
       </c>
       <c r="AS11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT11" t="n">
         <v>14</v>
@@ -2436,16 +2503,16 @@
         <v>15</v>
       </c>
       <c r="AV11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW11" t="n">
         <v>13</v>
       </c>
       <c r="AX11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AY11" t="n">
         <v>19</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>18</v>
       </c>
       <c r="AZ11" t="n">
         <v>17</v>
@@ -2454,7 +2521,7 @@
         <v>29</v>
       </c>
       <c r="BB11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC11" t="n">
         <v>14</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-21-2011-12</t>
+          <t>2012-02-21</t>
         </is>
       </c>
     </row>
@@ -2486,64 +2553,64 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F12" t="n">
         <v>12</v>
       </c>
       <c r="G12" t="n">
-        <v>0.625</v>
+        <v>0.613</v>
       </c>
       <c r="H12" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I12" t="n">
-        <v>34.8</v>
+        <v>34.5</v>
       </c>
       <c r="J12" t="n">
-        <v>81</v>
+        <v>80.7</v>
       </c>
       <c r="K12" t="n">
-        <v>0.43</v>
+        <v>0.428</v>
       </c>
       <c r="L12" t="n">
         <v>5.6</v>
       </c>
       <c r="M12" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="N12" t="n">
         <v>0.361</v>
       </c>
       <c r="O12" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="P12" t="n">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.781</v>
+        <v>0.784</v>
       </c>
       <c r="R12" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="S12" t="n">
         <v>31.4</v>
       </c>
       <c r="T12" t="n">
-        <v>43.7</v>
+        <v>43.6</v>
       </c>
       <c r="U12" t="n">
         <v>17.7</v>
       </c>
       <c r="V12" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W12" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X12" t="n">
         <v>5.5</v>
@@ -2555,46 +2622,46 @@
         <v>21.7</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB12" t="n">
-        <v>95.3</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AE12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF12" t="n">
         <v>6</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH12" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AI12" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AJ12" t="n">
         <v>17</v>
       </c>
       <c r="AK12" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AL12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM12" t="n">
         <v>22</v>
       </c>
       <c r="AN12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO12" t="n">
         <v>5</v>
@@ -2603,22 +2670,22 @@
         <v>5</v>
       </c>
       <c r="AQ12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AR12" t="n">
         <v>8</v>
       </c>
       <c r="AS12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU12" t="n">
         <v>28</v>
       </c>
       <c r="AV12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW12" t="n">
         <v>9</v>
@@ -2627,19 +2694,19 @@
         <v>8</v>
       </c>
       <c r="AY12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ12" t="n">
         <v>26</v>
       </c>
       <c r="BA12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BC12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-21-2011-12</t>
+          <t>2012-02-21</t>
         </is>
       </c>
     </row>
@@ -2749,7 +2816,7 @@
         <v>28</v>
       </c>
       <c r="AE13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF13" t="n">
         <v>5</v>
@@ -2767,7 +2834,7 @@
         <v>19</v>
       </c>
       <c r="AK13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL13" t="n">
         <v>5</v>
@@ -2791,7 +2858,7 @@
         <v>11</v>
       </c>
       <c r="AS13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT13" t="n">
         <v>13</v>
@@ -2806,7 +2873,7 @@
         <v>17</v>
       </c>
       <c r="AX13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY13" t="n">
         <v>4</v>
@@ -2818,10 +2885,10 @@
         <v>4</v>
       </c>
       <c r="BB13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-21-2011-12</t>
+          <t>2012-02-21</t>
         </is>
       </c>
     </row>
@@ -2928,13 +2995,13 @@
         <v>2.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AE14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG14" t="n">
         <v>10</v>
@@ -2967,7 +3034,7 @@
         <v>13</v>
       </c>
       <c r="AQ14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR14" t="n">
         <v>13</v>
@@ -2979,7 +3046,7 @@
         <v>1</v>
       </c>
       <c r="AU14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV14" t="n">
         <v>16</v>
@@ -2988,7 +3055,7 @@
         <v>29</v>
       </c>
       <c r="AX14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
@@ -3000,7 +3067,7 @@
         <v>15</v>
       </c>
       <c r="BB14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC14" t="n">
         <v>11</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-21-2011-12</t>
+          <t>2012-02-21</t>
         </is>
       </c>
     </row>
@@ -3032,88 +3099,88 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" t="n">
         <v>15</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.545</v>
       </c>
       <c r="H15" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="I15" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="J15" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.444</v>
+        <v>0.445</v>
       </c>
       <c r="L15" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="M15" t="n">
         <v>11.3</v>
       </c>
       <c r="N15" t="n">
-        <v>0.326</v>
+        <v>0.32</v>
       </c>
       <c r="O15" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="P15" t="n">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.754</v>
+        <v>0.755</v>
       </c>
       <c r="R15" t="n">
         <v>12.4</v>
       </c>
       <c r="S15" t="n">
-        <v>29.9</v>
+        <v>29.7</v>
       </c>
       <c r="T15" t="n">
-        <v>42.3</v>
+        <v>42.1</v>
       </c>
       <c r="U15" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="V15" t="n">
         <v>15.2</v>
       </c>
       <c r="W15" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="X15" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AB15" t="n">
-        <v>93.40000000000001</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE15" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AF15" t="n">
         <v>13</v>
@@ -3122,7 +3189,7 @@
         <v>13</v>
       </c>
       <c r="AH15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI15" t="n">
         <v>12</v>
@@ -3131,7 +3198,7 @@
         <v>10</v>
       </c>
       <c r="AK15" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AL15" t="n">
         <v>30</v>
@@ -3140,7 +3207,7 @@
         <v>30</v>
       </c>
       <c r="AN15" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO15" t="n">
         <v>11</v>
@@ -3155,13 +3222,13 @@
         <v>5</v>
       </c>
       <c r="AS15" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AT15" t="n">
         <v>16</v>
       </c>
       <c r="AU15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV15" t="n">
         <v>17</v>
@@ -3170,10 +3237,10 @@
         <v>1</v>
       </c>
       <c r="AX15" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AY15" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AZ15" t="n">
         <v>12</v>
@@ -3182,10 +3249,10 @@
         <v>14</v>
       </c>
       <c r="BB15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC15" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-21-2011-12</t>
+          <t>2012-02-21</t>
         </is>
       </c>
     </row>
@@ -3214,88 +3281,88 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F16" t="n">
         <v>7</v>
       </c>
       <c r="G16" t="n">
-        <v>0.788</v>
+        <v>0.781</v>
       </c>
       <c r="H16" t="n">
         <v>48.8</v>
       </c>
       <c r="I16" t="n">
-        <v>38.5</v>
+        <v>38.3</v>
       </c>
       <c r="J16" t="n">
-        <v>79</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>0.488</v>
+        <v>0.485</v>
       </c>
       <c r="L16" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M16" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="N16" t="n">
-        <v>0.402</v>
+        <v>0.4</v>
       </c>
       <c r="O16" t="n">
         <v>20.8</v>
       </c>
       <c r="P16" t="n">
-        <v>26.5</v>
+        <v>26.6</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.785</v>
+        <v>0.782</v>
       </c>
       <c r="R16" t="n">
         <v>9.9</v>
       </c>
       <c r="S16" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="T16" t="n">
-        <v>42.9</v>
+        <v>43</v>
       </c>
       <c r="U16" t="n">
-        <v>21.2</v>
+        <v>20.9</v>
       </c>
       <c r="V16" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W16" t="n">
         <v>8.4</v>
       </c>
       <c r="X16" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="Y16" t="n">
         <v>4.2</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA16" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AB16" t="n">
-        <v>103.8</v>
+        <v>103.3</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AE16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF16" t="n">
         <v>1</v>
@@ -3310,7 +3377,7 @@
         <v>1</v>
       </c>
       <c r="AJ16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK16" t="n">
         <v>1</v>
@@ -3319,7 +3386,7 @@
         <v>19</v>
       </c>
       <c r="AM16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN16" t="n">
         <v>1</v>
@@ -3331,34 +3398,34 @@
         <v>3</v>
       </c>
       <c r="AQ16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU16" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AV16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AW16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX16" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AY16" t="n">
         <v>3</v>
       </c>
       <c r="AZ16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA16" t="n">
         <v>5</v>
@@ -3367,7 +3434,7 @@
         <v>2</v>
       </c>
       <c r="BC16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-21-2011-12</t>
+          <t>2012-02-21</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-1.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AE17" t="n">
         <v>21</v>
@@ -3486,7 +3553,7 @@
         <v>23</v>
       </c>
       <c r="AH17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI17" t="n">
         <v>14</v>
@@ -3504,7 +3571,7 @@
         <v>8</v>
       </c>
       <c r="AN17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO17" t="n">
         <v>17</v>
@@ -3525,7 +3592,7 @@
         <v>18</v>
       </c>
       <c r="AU17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV17" t="n">
         <v>8</v>
@@ -3534,7 +3601,7 @@
         <v>14</v>
       </c>
       <c r="AX17" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AY17" t="n">
         <v>9</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-21-2011-12</t>
+          <t>2012-02-21</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>1.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE18" t="n">
         <v>16</v>
@@ -3683,10 +3750,10 @@
         <v>16</v>
       </c>
       <c r="AM18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO18" t="n">
         <v>4</v>
@@ -3707,19 +3774,19 @@
         <v>3</v>
       </c>
       <c r="AU18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV18" t="n">
         <v>27</v>
       </c>
       <c r="AW18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ18" t="n">
         <v>7</v>
@@ -3731,7 +3798,7 @@
         <v>10</v>
       </c>
       <c r="BC18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-21-2011-12</t>
+          <t>2012-02-21</t>
         </is>
       </c>
     </row>
@@ -3850,7 +3917,7 @@
         <v>26</v>
       </c>
       <c r="AH19" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-21-2011-12</t>
+          <t>2012-02-21</t>
         </is>
       </c>
     </row>
@@ -3942,97 +4009,97 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E20" t="n">
         <v>7</v>
       </c>
       <c r="F20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G20" t="n">
-        <v>0.219</v>
+        <v>0.226</v>
       </c>
       <c r="H20" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I20" t="n">
-        <v>34.4</v>
+        <v>34.2</v>
       </c>
       <c r="J20" t="n">
         <v>78.2</v>
       </c>
       <c r="K20" t="n">
-        <v>0.44</v>
+        <v>0.437</v>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="M20" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="N20" t="n">
-        <v>0.322</v>
+        <v>0.316</v>
       </c>
       <c r="O20" t="n">
         <v>15.3</v>
       </c>
       <c r="P20" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.741</v>
+        <v>0.744</v>
       </c>
       <c r="R20" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S20" t="n">
         <v>29.7</v>
       </c>
       <c r="T20" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U20" t="n">
-        <v>19.8</v>
+        <v>19.5</v>
       </c>
       <c r="V20" t="n">
         <v>15.5</v>
       </c>
       <c r="W20" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="X20" t="n">
         <v>4.7</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="AB20" t="n">
-        <v>88.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>-5.4</v>
+        <v>-5.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
       </c>
       <c r="AF20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG20" t="n">
         <v>28</v>
       </c>
       <c r="AH20" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AI20" t="n">
         <v>24</v>
@@ -4041,7 +4108,7 @@
         <v>27</v>
       </c>
       <c r="AK20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL20" t="n">
         <v>28</v>
@@ -4050,7 +4117,7 @@
         <v>29</v>
       </c>
       <c r="AN20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO20" t="n">
         <v>24</v>
@@ -4059,13 +4126,13 @@
         <v>25</v>
       </c>
       <c r="AQ20" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AR20" t="n">
         <v>15</v>
       </c>
       <c r="AS20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT20" t="n">
         <v>23</v>
@@ -4077,13 +4144,13 @@
         <v>22</v>
       </c>
       <c r="AW20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ20" t="n">
         <v>21</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-21-2011-12</t>
+          <t>2012-02-21</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>1.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE21" t="n">
         <v>16</v>
@@ -4214,10 +4281,10 @@
         <v>16</v>
       </c>
       <c r="AH21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ21" t="n">
         <v>20</v>
@@ -4247,7 +4314,7 @@
         <v>17</v>
       </c>
       <c r="AS21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT21" t="n">
         <v>20</v>
@@ -4265,7 +4332,7 @@
         <v>28</v>
       </c>
       <c r="AY21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ21" t="n">
         <v>25</v>
@@ -4277,7 +4344,7 @@
         <v>12</v>
       </c>
       <c r="BC21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-21-2011-12</t>
+          <t>2012-02-21</t>
         </is>
       </c>
     </row>
@@ -4384,22 +4451,22 @@
         <v>5.9</v>
       </c>
       <c r="AD22" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AE22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF22" t="n">
         <v>1</v>
       </c>
       <c r="AG22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH22" t="n">
         <v>14</v>
       </c>
       <c r="AI22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ22" t="n">
         <v>28</v>
@@ -4429,10 +4496,10 @@
         <v>21</v>
       </c>
       <c r="AS22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU22" t="n">
         <v>27</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-21-2011-12</t>
+          <t>2012-02-21</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>2</v>
       </c>
       <c r="AD23" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE23" t="n">
         <v>5</v>
@@ -4602,7 +4669,7 @@
         <v>16</v>
       </c>
       <c r="AP23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
@@ -4629,16 +4696,16 @@
         <v>29</v>
       </c>
       <c r="AY23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ23" t="n">
         <v>5</v>
       </c>
       <c r="BA23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC23" t="n">
         <v>13</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-21-2011-12</t>
+          <t>2012-02-21</t>
         </is>
       </c>
     </row>
@@ -4670,43 +4737,43 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E24" t="n">
         <v>20</v>
       </c>
       <c r="F24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G24" t="n">
-        <v>0.606</v>
+        <v>0.625</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
       </c>
       <c r="I24" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="J24" t="n">
         <v>83.09999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>0.45</v>
+        <v>0.453</v>
       </c>
       <c r="L24" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="M24" t="n">
         <v>15.6</v>
       </c>
       <c r="N24" t="n">
-        <v>0.379</v>
+        <v>0.374</v>
       </c>
       <c r="O24" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="P24" t="n">
-        <v>18.5</v>
+        <v>18.8</v>
       </c>
       <c r="Q24" t="n">
         <v>0.728</v>
@@ -4715,61 +4782,61 @@
         <v>9.800000000000001</v>
       </c>
       <c r="S24" t="n">
-        <v>33</v>
+        <v>33.2</v>
       </c>
       <c r="T24" t="n">
-        <v>42.8</v>
+        <v>43</v>
       </c>
       <c r="U24" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="V24" t="n">
-        <v>10.5</v>
+        <v>10.3</v>
       </c>
       <c r="W24" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X24" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="Z24" t="n">
         <v>17.8</v>
       </c>
       <c r="AA24" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="AB24" t="n">
-        <v>94.2</v>
+        <v>94.8</v>
       </c>
       <c r="AC24" t="n">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AE24" t="n">
         <v>7</v>
       </c>
       <c r="AF24" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AG24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH24" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AI24" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AJ24" t="n">
         <v>5</v>
       </c>
       <c r="AK24" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AL24" t="n">
         <v>20</v>
@@ -4787,19 +4854,19 @@
         <v>30</v>
       </c>
       <c r="AQ24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR24" t="n">
         <v>29</v>
       </c>
       <c r="AS24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AT24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU24" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV24" t="n">
         <v>1</v>
@@ -4808,10 +4875,10 @@
         <v>7</v>
       </c>
       <c r="AX24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ24" t="n">
         <v>4</v>
@@ -4820,7 +4887,7 @@
         <v>30</v>
       </c>
       <c r="BB24" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="BC24" t="n">
         <v>3</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-21-2011-12</t>
+          <t>2012-02-21</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
         <v>20</v>
@@ -4939,7 +5006,7 @@
         <v>22</v>
       </c>
       <c r="AG25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH25" t="n">
         <v>29</v>
@@ -4951,10 +5018,10 @@
         <v>14</v>
       </c>
       <c r="AK25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM25" t="n">
         <v>9</v>
@@ -4972,7 +5039,7 @@
         <v>8</v>
       </c>
       <c r="AR25" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS25" t="n">
         <v>13</v>
@@ -4981,7 +5048,7 @@
         <v>25</v>
       </c>
       <c r="AU25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV25" t="n">
         <v>11</v>
@@ -5002,7 +5069,7 @@
         <v>20</v>
       </c>
       <c r="BB25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC25" t="n">
         <v>22</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-21-2011-12</t>
+          <t>2012-02-21</t>
         </is>
       </c>
     </row>
@@ -5034,37 +5101,37 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F26" t="n">
         <v>16</v>
       </c>
       <c r="G26" t="n">
-        <v>0.529</v>
+        <v>0.515</v>
       </c>
       <c r="H26" t="n">
         <v>48.6</v>
       </c>
       <c r="I26" t="n">
-        <v>37.1</v>
+        <v>36.6</v>
       </c>
       <c r="J26" t="n">
-        <v>83</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.447</v>
+        <v>0.442</v>
       </c>
       <c r="L26" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="M26" t="n">
-        <v>19.8</v>
+        <v>19.5</v>
       </c>
       <c r="N26" t="n">
-        <v>0.338</v>
+        <v>0.329</v>
       </c>
       <c r="O26" t="n">
         <v>17.6</v>
@@ -5073,49 +5140,49 @@
         <v>22.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.783</v>
+        <v>0.782</v>
       </c>
       <c r="R26" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="S26" t="n">
-        <v>31</v>
+        <v>30.7</v>
       </c>
       <c r="T26" t="n">
-        <v>42</v>
+        <v>41.9</v>
       </c>
       <c r="U26" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="V26" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W26" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="X26" t="n">
         <v>5.2</v>
       </c>
       <c r="Y26" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="AB26" t="n">
-        <v>98.40000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="AC26" t="n">
-        <v>5.4</v>
+        <v>4.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF26" t="n">
         <v>15</v>
@@ -5127,13 +5194,13 @@
         <v>5</v>
       </c>
       <c r="AI26" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AJ26" t="n">
         <v>6</v>
       </c>
       <c r="AK26" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AL26" t="n">
         <v>15</v>
@@ -5142,52 +5209,52 @@
         <v>14</v>
       </c>
       <c r="AN26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP26" t="n">
         <v>14</v>
       </c>
       <c r="AQ26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR26" t="n">
         <v>16</v>
       </c>
       <c r="AS26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT26" t="n">
         <v>17</v>
       </c>
       <c r="AU26" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AV26" t="n">
         <v>7</v>
       </c>
       <c r="AW26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX26" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AY26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ26" t="n">
         <v>16</v>
       </c>
       <c r="BA26" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BB26" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC26" t="n">
         <v>6</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>5</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-21-2011-12</t>
+          <t>2012-02-21</t>
         </is>
       </c>
     </row>
@@ -5216,85 +5283,85 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E27" t="n">
         <v>10</v>
       </c>
       <c r="F27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G27" t="n">
-        <v>0.313</v>
+        <v>0.323</v>
       </c>
       <c r="H27" t="n">
         <v>48.2</v>
       </c>
       <c r="I27" t="n">
-        <v>34.5</v>
+        <v>34.3</v>
       </c>
       <c r="J27" t="n">
-        <v>84.40000000000001</v>
+        <v>84.2</v>
       </c>
       <c r="K27" t="n">
-        <v>0.409</v>
+        <v>0.408</v>
       </c>
       <c r="L27" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="M27" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="N27" t="n">
-        <v>0.313</v>
+        <v>0.305</v>
       </c>
       <c r="O27" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="P27" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.741</v>
+        <v>0.74</v>
       </c>
       <c r="R27" t="n">
         <v>13.9</v>
       </c>
       <c r="S27" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T27" t="n">
-        <v>43.6</v>
+        <v>43.7</v>
       </c>
       <c r="U27" t="n">
-        <v>17.3</v>
+        <v>17</v>
       </c>
       <c r="V27" t="n">
         <v>15.3</v>
       </c>
       <c r="W27" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X27" t="n">
         <v>4.3</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="Z27" t="n">
         <v>19.7</v>
       </c>
       <c r="AA27" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB27" t="n">
-        <v>93.5</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="AC27" t="n">
-        <v>-8.4</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="AD27" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
@@ -5306,7 +5373,7 @@
         <v>25</v>
       </c>
       <c r="AH27" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AI27" t="n">
         <v>23</v>
@@ -5321,7 +5388,7 @@
         <v>17</v>
       </c>
       <c r="AM27" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AN27" t="n">
         <v>25</v>
@@ -5330,19 +5397,19 @@
         <v>8</v>
       </c>
       <c r="AP27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR27" t="n">
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AT27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU27" t="n">
         <v>30</v>
@@ -5366,7 +5433,7 @@
         <v>11</v>
       </c>
       <c r="BB27" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BC27" t="n">
         <v>28</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-21-2011-12</t>
+          <t>2012-02-21</t>
         </is>
       </c>
     </row>
@@ -5398,28 +5465,28 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E28" t="n">
         <v>23</v>
       </c>
       <c r="F28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G28" t="n">
-        <v>0.697</v>
+        <v>0.719</v>
       </c>
       <c r="H28" t="n">
         <v>48.6</v>
       </c>
       <c r="I28" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="J28" t="n">
         <v>82.09999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.459</v>
+        <v>0.461</v>
       </c>
       <c r="L28" t="n">
         <v>7.8</v>
@@ -5431,25 +5498,25 @@
         <v>0.39</v>
       </c>
       <c r="O28" t="n">
-        <v>15.7</v>
+        <v>15.4</v>
       </c>
       <c r="P28" t="n">
-        <v>21.5</v>
+        <v>21.2</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.729</v>
+        <v>0.726</v>
       </c>
       <c r="R28" t="n">
         <v>9.9</v>
       </c>
       <c r="S28" t="n">
-        <v>31.2</v>
+        <v>31.5</v>
       </c>
       <c r="T28" t="n">
-        <v>41.2</v>
+        <v>41.4</v>
       </c>
       <c r="U28" t="n">
-        <v>22.1</v>
+        <v>22.4</v>
       </c>
       <c r="V28" t="n">
         <v>13.5</v>
@@ -5458,25 +5525,25 @@
         <v>7</v>
       </c>
       <c r="X28" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AB28" t="n">
-        <v>98.8</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.4</v>
+        <v>4.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AE28" t="n">
         <v>4</v>
@@ -5497,7 +5564,7 @@
         <v>7</v>
       </c>
       <c r="AK28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL28" t="n">
         <v>4</v>
@@ -5509,25 +5576,25 @@
         <v>3</v>
       </c>
       <c r="AO28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ28" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AR28" t="n">
         <v>26</v>
       </c>
       <c r="AS28" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AT28" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AU28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV28" t="n">
         <v>2</v>
@@ -5536,10 +5603,10 @@
         <v>25</v>
       </c>
       <c r="AX28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5551,7 +5618,7 @@
         <v>5</v>
       </c>
       <c r="BC28" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-21-2011-12</t>
+          <t>2012-02-21</t>
         </is>
       </c>
     </row>
@@ -5658,13 +5725,13 @@
         <v>-5.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AE29" t="n">
         <v>27</v>
       </c>
       <c r="AF29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG29" t="n">
         <v>27</v>
@@ -5676,19 +5743,19 @@
         <v>27</v>
       </c>
       <c r="AJ29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM29" t="n">
         <v>18</v>
       </c>
       <c r="AN29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO29" t="n">
         <v>21</v>
@@ -5712,13 +5779,13 @@
         <v>16</v>
       </c>
       <c r="AV29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY29" t="n">
         <v>14</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-21-2011-12</t>
+          <t>2012-02-21</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-1.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE30" t="n">
         <v>18</v>
@@ -5855,13 +5922,13 @@
         <v>7</v>
       </c>
       <c r="AI30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ30" t="n">
         <v>12</v>
       </c>
       <c r="AK30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL30" t="n">
         <v>29</v>
@@ -5876,7 +5943,7 @@
         <v>7</v>
       </c>
       <c r="AP30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ30" t="n">
         <v>16</v>
@@ -5903,13 +5970,13 @@
         <v>3</v>
       </c>
       <c r="AY30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ30" t="n">
         <v>28</v>
       </c>
       <c r="BA30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB30" t="n">
         <v>11</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-21-2011-12</t>
+          <t>2012-02-21</t>
         </is>
       </c>
     </row>
@@ -6022,19 +6089,19 @@
         <v>-9</v>
       </c>
       <c r="AD31" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
       </c>
       <c r="AF31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AH31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI31" t="n">
         <v>18</v>
@@ -6046,10 +6113,10 @@
         <v>26</v>
       </c>
       <c r="AL31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN31" t="n">
         <v>30</v>
@@ -6061,7 +6128,7 @@
         <v>17</v>
       </c>
       <c r="AQ31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR31" t="n">
         <v>13</v>
@@ -6070,7 +6137,7 @@
         <v>26</v>
       </c>
       <c r="AT31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU31" t="n">
         <v>29</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-21-2011-12</t>
+          <t>2012-02-21</t>
         </is>
       </c>
     </row>
